--- a/メニュー/焼津スマートマップメニューテンプレート.xlsx
+++ b/メニュー/焼津スマートマップメニューテンプレート.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="929">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -1706,6 +1706,9 @@
   </si>
   <si>
     <t>public-facility-navy</t>
+  </si>
+  <si>
+    <t>市の窓口1</t>
   </si>
   <si>
     <t>Free Wi-Fiスポット</t>
@@ -9459,21 +9462,21 @@
     </row>
     <row r="199" ht="13.5" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B199" s="30"/>
       <c r="C199" s="30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D199" s="29" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="10"/>
       <c r="I199" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J199" s="8"/>
       <c r="K199" s="10"/>
@@ -18239,13 +18242,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1" s="77" t="s">
         <v>4</v>
@@ -18279,26 +18282,26 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I2" s="82"/>
       <c r="J2" s="82"/>
@@ -18313,26 +18316,26 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
@@ -18347,26 +18350,26 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G4" s="80"/>
       <c r="H4" s="81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
@@ -18381,26 +18384,26 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -18415,26 +18418,26 @@
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G6" s="80"/>
       <c r="H6" s="81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -18449,26 +18452,26 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G7" s="80"/>
       <c r="H7" s="81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
@@ -18483,24 +18486,24 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="81" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
@@ -18515,26 +18518,26 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
@@ -18549,26 +18552,26 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
@@ -18583,26 +18586,26 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
@@ -18617,26 +18620,26 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
@@ -18651,32 +18654,32 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
       <c r="L13" s="82" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M13" s="82"/>
       <c r="N13" s="67"/>
@@ -18687,22 +18690,22 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="60" t="s">
@@ -18721,26 +18724,26 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
@@ -18757,16 +18760,16 @@
       <c r="A16" s="65"/>
       <c r="B16" s="84"/>
       <c r="C16" s="60" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="81"/>
@@ -18788,13 +18791,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="81" t="s">
@@ -18826,13 +18829,13 @@
         <v>18</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E18" s="60" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G18" s="88"/>
       <c r="H18" s="81"/>
@@ -18860,13 +18863,13 @@
         <v>21</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E19" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G19" s="88"/>
       <c r="H19" s="81"/>
@@ -18894,13 +18897,13 @@
         <v>24</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E20" s="92" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G20" s="94"/>
       <c r="H20" s="81"/>
@@ -18928,13 +18931,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G21" s="94"/>
       <c r="H21" s="96"/>
@@ -18962,13 +18965,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E22" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G22" s="94"/>
       <c r="H22" s="81"/>
@@ -18996,13 +18999,13 @@
         <v>33</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E23" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G23" s="99"/>
       <c r="H23" s="81"/>
@@ -19030,13 +19033,13 @@
         <v>36</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G24" s="94"/>
       <c r="H24" s="81"/>
@@ -19064,13 +19067,13 @@
         <v>39</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E25" s="92" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G25" s="94"/>
       <c r="H25" s="81"/>
@@ -19098,13 +19101,13 @@
         <v>42</v>
       </c>
       <c r="D26" s="100" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E26" s="81" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
@@ -19132,13 +19135,13 @@
         <v>45</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E27" s="81" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
@@ -19166,13 +19169,13 @@
         <v>48</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E28" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G28" s="88"/>
       <c r="H28" s="81"/>
@@ -19200,13 +19203,13 @@
         <v>51</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E29" s="81" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G29" s="88"/>
       <c r="H29" s="81"/>
@@ -19234,13 +19237,13 @@
         <v>55</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E30" s="101" t="s">
         <v>55</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G30" s="102"/>
       <c r="H30" s="65"/>
@@ -19268,13 +19271,13 @@
         <v>58</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E31" s="101" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G31" s="102"/>
       <c r="H31" s="67"/>
@@ -19302,13 +19305,13 @@
         <v>61</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E32" s="101" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G32" s="102"/>
       <c r="H32" s="67"/>
@@ -19336,13 +19339,13 @@
         <v>65</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E33" s="101" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G33" s="102"/>
       <c r="H33" s="67"/>
@@ -19370,13 +19373,13 @@
         <v>68</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E34" s="101" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G34" s="102"/>
       <c r="H34" s="65"/>
@@ -19402,13 +19405,13 @@
         <v>71</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E35" s="101" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G35" s="102"/>
       <c r="H35" s="65" t="s">
@@ -19440,16 +19443,16 @@
         <v>76</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E36" s="104" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H36" s="81"/>
       <c r="I36" s="68"/>
@@ -19474,16 +19477,16 @@
         <v>78</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E37" s="105" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H37" s="81"/>
       <c r="I37" s="68"/>
@@ -19508,16 +19511,16 @@
         <v>81</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G38" s="106" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H38" s="65"/>
       <c r="I38" s="68"/>
@@ -19542,13 +19545,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E39" s="107" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G39" s="66"/>
       <c r="H39" s="65" t="s">
@@ -19578,13 +19581,13 @@
         <v>87</v>
       </c>
       <c r="D40" s="108" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E40" s="107" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G40" s="66"/>
       <c r="H40" s="65" t="s">
@@ -19614,13 +19617,13 @@
         <v>90</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E41" s="107" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="65" t="s">
@@ -19650,13 +19653,13 @@
         <v>93</v>
       </c>
       <c r="D42" s="109" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G42" s="85"/>
       <c r="H42" s="65" t="s">
@@ -19686,13 +19689,13 @@
         <v>96</v>
       </c>
       <c r="D43" s="108" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F43" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="65" t="s">
@@ -19722,16 +19725,16 @@
         <v>100</v>
       </c>
       <c r="D44" s="110" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G44" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H44" s="65"/>
       <c r="I44" s="68"/>
@@ -19759,13 +19762,13 @@
         <v>103</v>
       </c>
       <c r="E45" s="84" t="s">
+        <v>632</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="G45" s="112" t="s">
         <v>631</v>
-      </c>
-      <c r="F45" s="84" t="s">
-        <v>612</v>
-      </c>
-      <c r="G45" s="112" t="s">
-        <v>630</v>
       </c>
       <c r="H45" s="65"/>
       <c r="I45" s="82"/>
@@ -19793,13 +19796,13 @@
         <v>105</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G46" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H46" s="65"/>
       <c r="I46" s="82"/>
@@ -19827,13 +19830,13 @@
         <v>107</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G47" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H47" s="67"/>
       <c r="I47" s="82"/>
@@ -19861,13 +19864,13 @@
         <v>109</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G48" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H48" s="65"/>
       <c r="I48" s="82"/>
@@ -19895,13 +19898,13 @@
         <v>111</v>
       </c>
       <c r="E49" s="84" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G49" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H49" s="65"/>
       <c r="I49" s="82"/>
@@ -19929,13 +19932,13 @@
         <v>113</v>
       </c>
       <c r="E50" s="84" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G50" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H50" s="67"/>
       <c r="I50" s="82"/>
@@ -19963,13 +19966,13 @@
         <v>115</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G51" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H51" s="65"/>
       <c r="I51" s="82"/>
@@ -19997,13 +20000,13 @@
         <v>117</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G52" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H52" s="65"/>
       <c r="I52" s="82"/>
@@ -20031,13 +20034,13 @@
         <v>119</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G53" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H53" s="65"/>
       <c r="I53" s="82"/>
@@ -20065,13 +20068,13 @@
         <v>121</v>
       </c>
       <c r="E54" s="84" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G54" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H54" s="65"/>
       <c r="I54" s="82"/>
@@ -20099,13 +20102,13 @@
         <v>123</v>
       </c>
       <c r="E55" s="84" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F55" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G55" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H55" s="65"/>
       <c r="I55" s="82"/>
@@ -20133,13 +20136,13 @@
         <v>125</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G56" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H56" s="65"/>
       <c r="I56" s="82"/>
@@ -20167,13 +20170,13 @@
         <v>127</v>
       </c>
       <c r="E57" s="84" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G57" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H57" s="67"/>
       <c r="I57" s="82"/>
@@ -20201,13 +20204,13 @@
         <v>129</v>
       </c>
       <c r="E58" s="84" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G58" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H58" s="65"/>
       <c r="I58" s="82"/>
@@ -20235,13 +20238,13 @@
         <v>131</v>
       </c>
       <c r="E59" s="84" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H59" s="65"/>
       <c r="I59" s="82"/>
@@ -20269,13 +20272,13 @@
         <v>133</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H60" s="65"/>
       <c r="I60" s="82"/>
@@ -20303,13 +20306,13 @@
         <v>135</v>
       </c>
       <c r="E61" s="111" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F61" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G61" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H61" s="65"/>
       <c r="I61" s="68"/>
@@ -20337,13 +20340,13 @@
         <v>136</v>
       </c>
       <c r="E62" s="111" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F62" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G62" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H62" s="65"/>
       <c r="I62" s="68"/>
@@ -20371,13 +20374,13 @@
         <v>137</v>
       </c>
       <c r="E63" s="84" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F63" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G63" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H63" s="65"/>
       <c r="I63" s="68"/>
@@ -20405,13 +20408,13 @@
         <v>138</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G64" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H64" s="65"/>
       <c r="I64" s="68"/>
@@ -20439,13 +20442,13 @@
         <v>139</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F65" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G65" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H65" s="65"/>
       <c r="I65" s="68"/>
@@ -20473,13 +20476,13 @@
         <v>140</v>
       </c>
       <c r="E66" s="84" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F66" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G66" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H66" s="65"/>
       <c r="I66" s="68"/>
@@ -20507,13 +20510,13 @@
         <v>141</v>
       </c>
       <c r="E67" s="84" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G67" s="112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H67" s="67"/>
       <c r="I67" s="68"/>
@@ -20538,16 +20541,16 @@
         <v>100</v>
       </c>
       <c r="D68" s="106" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G68" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H68" s="116"/>
       <c r="I68" s="68"/>
@@ -20575,13 +20578,13 @@
         <v>144</v>
       </c>
       <c r="E69" s="116" t="s">
+        <v>658</v>
+      </c>
+      <c r="F69" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="G69" s="106" t="s">
         <v>657</v>
-      </c>
-      <c r="F69" s="84" t="s">
-        <v>612</v>
-      </c>
-      <c r="G69" s="106" t="s">
-        <v>656</v>
       </c>
       <c r="H69" s="67"/>
       <c r="I69" s="68"/>
@@ -20609,13 +20612,13 @@
         <v>145</v>
       </c>
       <c r="E70" s="84" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G70" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H70" s="67"/>
       <c r="I70" s="68"/>
@@ -20643,13 +20646,13 @@
         <v>146</v>
       </c>
       <c r="E71" s="84" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F71" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G71" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H71" s="67"/>
       <c r="I71" s="68"/>
@@ -20677,13 +20680,13 @@
         <v>147</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G72" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H72" s="116"/>
       <c r="I72" s="68"/>
@@ -20711,13 +20714,13 @@
         <v>148</v>
       </c>
       <c r="E73" s="116" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F73" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G73" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H73" s="67"/>
       <c r="I73" s="68"/>
@@ -20745,13 +20748,13 @@
         <v>149</v>
       </c>
       <c r="E74" s="84" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F74" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G74" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H74" s="67"/>
       <c r="I74" s="68"/>
@@ -20779,13 +20782,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="84" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F75" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G75" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H75" s="67"/>
       <c r="I75" s="68"/>
@@ -20813,13 +20816,13 @@
         <v>151</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G76" s="106" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H76" s="67"/>
       <c r="I76" s="68"/>
@@ -20844,13 +20847,13 @@
         <v>102</v>
       </c>
       <c r="D77" s="108" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E77" s="65" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F77" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G77" s="66"/>
       <c r="H77" s="65" t="s">
@@ -20880,13 +20883,13 @@
         <v>102</v>
       </c>
       <c r="D78" s="108" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E78" s="65" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F78" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G78" s="66"/>
       <c r="H78" s="65" t="s">
@@ -20916,13 +20919,13 @@
         <v>108</v>
       </c>
       <c r="D79" s="108" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F79" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G79" s="66"/>
       <c r="H79" s="65" t="s">
@@ -20952,13 +20955,13 @@
         <v>110</v>
       </c>
       <c r="D80" s="108" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G80" s="66"/>
       <c r="H80" s="65" t="s">
@@ -20988,13 +20991,13 @@
         <v>114</v>
       </c>
       <c r="D81" s="108" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F81" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G81" s="66"/>
       <c r="H81" s="65" t="s">
@@ -21024,13 +21027,13 @@
         <v>122</v>
       </c>
       <c r="D82" s="108" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F82" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G82" s="66"/>
       <c r="H82" s="65" t="s">
@@ -21060,13 +21063,13 @@
         <v>124</v>
       </c>
       <c r="D83" s="117" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E83" s="65" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F83" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G83" s="115"/>
       <c r="H83" s="65" t="s">
@@ -21096,13 +21099,13 @@
         <v>128</v>
       </c>
       <c r="D84" s="108" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G84" s="66"/>
       <c r="H84" s="65" t="s">
@@ -21132,13 +21135,13 @@
         <v>132</v>
       </c>
       <c r="D85" s="117" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F85" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G85" s="115"/>
       <c r="H85" s="65" t="s">
@@ -21166,13 +21169,13 @@
         <v>166</v>
       </c>
       <c r="D86" s="110" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E86" s="84" t="s">
         <v>166</v>
       </c>
       <c r="F86" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G86" s="112"/>
       <c r="H86" s="65"/>
@@ -21200,13 +21203,13 @@
         <v>169</v>
       </c>
       <c r="D87" s="110" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G87" s="112"/>
       <c r="H87" s="86" t="s">
@@ -21236,13 +21239,13 @@
         <v>171</v>
       </c>
       <c r="D88" s="118" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G88" s="119"/>
       <c r="H88" s="86" t="s">
@@ -21272,13 +21275,13 @@
         <v>173</v>
       </c>
       <c r="D89" s="110" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E89" s="84" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F89" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G89" s="112"/>
       <c r="H89" s="86" t="s">
@@ -21308,13 +21311,13 @@
         <v>175</v>
       </c>
       <c r="D90" s="110" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E90" s="84" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F90" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G90" s="112"/>
       <c r="H90" s="86" t="s">
@@ -21344,13 +21347,13 @@
         <v>177</v>
       </c>
       <c r="D91" s="110" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E91" s="84" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F91" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G91" s="112"/>
       <c r="H91" s="86" t="s">
@@ -21380,13 +21383,13 @@
         <v>179</v>
       </c>
       <c r="D92" s="110" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G92" s="112"/>
       <c r="H92" s="86" t="s">
@@ -21416,13 +21419,13 @@
         <v>181</v>
       </c>
       <c r="D93" s="118" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E93" s="84" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F93" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G93" s="119"/>
       <c r="H93" s="86" t="s">
@@ -21452,13 +21455,13 @@
         <v>183</v>
       </c>
       <c r="D94" s="110" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E94" s="84" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G94" s="112"/>
       <c r="H94" s="86" t="s">
@@ -21488,13 +21491,13 @@
         <v>185</v>
       </c>
       <c r="D95" s="110" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E95" s="84" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F95" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G95" s="112"/>
       <c r="H95" s="86" t="s">
@@ -21524,13 +21527,13 @@
         <v>187</v>
       </c>
       <c r="D96" s="110" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F96" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G96" s="112"/>
       <c r="H96" s="86" t="s">
@@ -21560,13 +21563,13 @@
         <v>189</v>
       </c>
       <c r="D97" s="118" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E97" s="84" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F97" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G97" s="119"/>
       <c r="H97" s="86" t="s">
@@ -21596,13 +21599,13 @@
         <v>191</v>
       </c>
       <c r="D98" s="110" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E98" s="84" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F98" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G98" s="112"/>
       <c r="H98" s="86" t="s">
@@ -21632,13 +21635,13 @@
         <v>193</v>
       </c>
       <c r="D99" s="110" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E99" s="84" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F99" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G99" s="112"/>
       <c r="H99" s="86" t="s">
@@ -21668,13 +21671,13 @@
         <v>195</v>
       </c>
       <c r="D100" s="110" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E100" s="84" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G100" s="112"/>
       <c r="H100" s="86" t="s">
@@ -21704,13 +21707,13 @@
         <v>197</v>
       </c>
       <c r="D101" s="110" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E101" s="84" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F101" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G101" s="112"/>
       <c r="H101" s="86" t="s">
@@ -21740,13 +21743,13 @@
         <v>199</v>
       </c>
       <c r="D102" s="110" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E102" s="84" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F102" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G102" s="112"/>
       <c r="H102" s="86" t="s">
@@ -21776,13 +21779,13 @@
         <v>201</v>
       </c>
       <c r="D103" s="110" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E103" s="84" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G103" s="112"/>
       <c r="H103" s="86" t="s">
@@ -21812,13 +21815,13 @@
         <v>203</v>
       </c>
       <c r="D104" s="110" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E104" s="84" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F104" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G104" s="112"/>
       <c r="H104" s="86" t="s">
@@ -21848,13 +21851,13 @@
         <v>205</v>
       </c>
       <c r="D105" s="110" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E105" s="84" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F105" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G105" s="112"/>
       <c r="H105" s="86" t="s">
@@ -21884,13 +21887,13 @@
         <v>207</v>
       </c>
       <c r="D106" s="110" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E106" s="84" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G106" s="112"/>
       <c r="H106" s="86" t="s">
@@ -21920,13 +21923,13 @@
         <v>209</v>
       </c>
       <c r="D107" s="110" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E107" s="84" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F107" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G107" s="112"/>
       <c r="H107" s="86" t="s">
@@ -21954,13 +21957,13 @@
         <v>212</v>
       </c>
       <c r="D108" s="87" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E108" s="60" t="s">
         <v>212</v>
       </c>
       <c r="F108" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G108" s="88"/>
       <c r="H108" s="81"/>
@@ -21988,13 +21991,13 @@
         <v>216</v>
       </c>
       <c r="D109" s="87" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E109" s="60" t="s">
         <v>216</v>
       </c>
       <c r="F109" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G109" s="88"/>
       <c r="H109" s="81"/>
@@ -22022,13 +22025,13 @@
         <v>219</v>
       </c>
       <c r="D110" s="87" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E110" s="81" t="s">
         <v>219</v>
       </c>
       <c r="F110" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G110" s="88"/>
       <c r="H110" s="81"/>
@@ -22054,13 +22057,13 @@
         <v>222</v>
       </c>
       <c r="D111" s="87" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E111" s="60" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F111" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G111" s="88"/>
       <c r="H111" s="81"/>
@@ -22086,13 +22089,13 @@
         <v>225</v>
       </c>
       <c r="D112" s="87" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F112" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G112" s="88"/>
       <c r="H112" s="81"/>
@@ -22118,13 +22121,13 @@
         <v>228</v>
       </c>
       <c r="D113" s="87" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E113" s="60" t="s">
         <v>228</v>
       </c>
       <c r="F113" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G113" s="88"/>
       <c r="H113" s="81"/>
@@ -22152,13 +22155,13 @@
         <v>232</v>
       </c>
       <c r="D114" s="87" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E114" s="79" t="s">
         <v>232</v>
       </c>
       <c r="F114" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G114" s="88"/>
       <c r="H114" s="81"/>
@@ -22186,13 +22189,13 @@
         <v>235</v>
       </c>
       <c r="D115" s="87" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E115" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F115" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G115" s="88"/>
       <c r="H115" s="81"/>
@@ -22218,13 +22221,13 @@
         <v>238</v>
       </c>
       <c r="D116" s="87" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E116" s="79" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F116" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G116" s="88"/>
       <c r="H116" s="81"/>
@@ -22250,13 +22253,13 @@
         <v>241</v>
       </c>
       <c r="D117" s="87" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E117" s="79" t="s">
         <v>241</v>
       </c>
       <c r="F117" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G117" s="88"/>
       <c r="H117" s="81"/>
@@ -22282,13 +22285,13 @@
         <v>244</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E118" s="79" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F118" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G118" s="102"/>
       <c r="H118" s="67"/>
@@ -22318,13 +22321,13 @@
         <v>247</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E119" s="79" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F119" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G119" s="102"/>
       <c r="H119" s="67"/>
@@ -22354,13 +22357,13 @@
         <v>250</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E120" s="79" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F120" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G120" s="102"/>
       <c r="H120" s="67"/>
@@ -22390,13 +22393,13 @@
         <v>253</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E121" s="79" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G121" s="102"/>
       <c r="H121" s="67"/>
@@ -22426,13 +22429,13 @@
         <v>256</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E122" s="79" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F122" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G122" s="102"/>
       <c r="H122" s="67"/>
@@ -22462,13 +22465,13 @@
         <v>259</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E123" s="79" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F123" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G123" s="102"/>
       <c r="H123" s="67"/>
@@ -22498,13 +22501,13 @@
         <v>262</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E124" s="79" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F124" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G124" s="102"/>
       <c r="H124" s="67"/>
@@ -22534,13 +22537,13 @@
         <v>265</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E125" s="131" t="s">
         <v>265</v>
       </c>
       <c r="F125" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G125" s="102"/>
       <c r="H125" s="65"/>
@@ -22568,13 +22571,13 @@
         <v>268</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E126" s="101" t="s">
         <v>268</v>
       </c>
       <c r="F126" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G126" s="106"/>
       <c r="H126" s="65"/>
@@ -22602,13 +22605,13 @@
         <v>271</v>
       </c>
       <c r="D127" s="110" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E127" s="132" t="s">
         <v>271</v>
       </c>
       <c r="F127" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G127" s="106"/>
       <c r="H127" s="65"/>
@@ -22644,7 +22647,7 @@
         <v>276</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G128" s="106"/>
       <c r="H128" s="65"/>
@@ -22670,13 +22673,13 @@
         <v>279</v>
       </c>
       <c r="D129" s="134" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E129" s="65" t="s">
         <v>279</v>
       </c>
       <c r="F129" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G129" s="66"/>
       <c r="H129" s="81" t="s">
@@ -22704,13 +22707,13 @@
         <v>282</v>
       </c>
       <c r="D130" s="134" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E130" s="65" t="s">
         <v>282</v>
       </c>
       <c r="F130" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G130" s="66"/>
       <c r="H130" s="81" t="s">
@@ -22738,13 +22741,13 @@
         <v>285</v>
       </c>
       <c r="D131" s="134" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E131" s="65" t="s">
         <v>285</v>
       </c>
       <c r="F131" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G131" s="66"/>
       <c r="H131" s="81" t="s">
@@ -22772,13 +22775,13 @@
         <v>288</v>
       </c>
       <c r="D132" s="134" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E132" s="65" t="s">
         <v>288</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G132" s="66"/>
       <c r="H132" s="81" t="s">
@@ -22808,13 +22811,13 @@
         <v>291</v>
       </c>
       <c r="D133" s="134" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E133" s="84" t="s">
         <v>291</v>
       </c>
       <c r="F133" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G133" s="66"/>
       <c r="H133" s="65" t="s">
@@ -22842,13 +22845,13 @@
         <v>294</v>
       </c>
       <c r="D134" s="134" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E134" s="132" t="s">
         <v>294</v>
       </c>
       <c r="F134" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G134" s="66"/>
       <c r="H134" s="86" t="s">
@@ -22876,13 +22879,13 @@
         <v>297</v>
       </c>
       <c r="D135" s="134" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E135" s="65" t="s">
         <v>297</v>
       </c>
       <c r="F135" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G135" s="66"/>
       <c r="H135" s="96" t="s">
@@ -22910,13 +22913,13 @@
         <v>300</v>
       </c>
       <c r="D136" s="85" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>300</v>
       </c>
       <c r="F136" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G136" s="66"/>
       <c r="H136" s="81" t="s">
@@ -22944,13 +22947,13 @@
         <v>303</v>
       </c>
       <c r="D137" s="66" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E137" s="84" t="s">
         <v>303</v>
       </c>
       <c r="F137" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G137" s="66"/>
       <c r="H137" s="67" t="s">
@@ -22978,13 +22981,13 @@
         <v>306</v>
       </c>
       <c r="D138" s="66" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E138" s="84" t="s">
         <v>306</v>
       </c>
       <c r="F138" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G138" s="66"/>
       <c r="H138" s="67" t="s">
@@ -23012,13 +23015,13 @@
         <v>308</v>
       </c>
       <c r="D139" s="66" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E139" s="84" t="s">
         <v>308</v>
       </c>
       <c r="F139" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G139" s="66"/>
       <c r="H139" s="67" t="s">
@@ -23046,13 +23049,13 @@
         <v>311</v>
       </c>
       <c r="D140" s="66" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E140" s="84" t="s">
         <v>311</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G140" s="66"/>
       <c r="H140" s="67" t="s">
@@ -23080,13 +23083,13 @@
         <v>314</v>
       </c>
       <c r="D141" s="108" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E141" s="84" t="s">
         <v>314</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G141" s="66"/>
       <c r="H141" s="65" t="s">
@@ -23118,13 +23121,13 @@
         <v>318</v>
       </c>
       <c r="D142" s="108" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E142" s="84" t="s">
         <v>318</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G142" s="66"/>
       <c r="H142" s="65" t="s">
@@ -23156,13 +23159,13 @@
         <v>321</v>
       </c>
       <c r="D143" s="108" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E143" s="84" t="s">
         <v>321</v>
       </c>
       <c r="F143" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G143" s="66"/>
       <c r="H143" s="65" t="s">
@@ -23194,13 +23197,13 @@
         <v>324</v>
       </c>
       <c r="D144" s="108" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E144" s="84" t="s">
         <v>324</v>
       </c>
       <c r="F144" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G144" s="66"/>
       <c r="H144" s="65" t="s">
@@ -23232,13 +23235,13 @@
         <v>327</v>
       </c>
       <c r="D145" s="108" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E145" s="84" t="s">
         <v>327</v>
       </c>
       <c r="F145" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G145" s="66"/>
       <c r="H145" s="65" t="s">
@@ -23270,13 +23273,13 @@
         <v>330</v>
       </c>
       <c r="D146" s="108" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E146" s="84" t="s">
         <v>330</v>
       </c>
       <c r="F146" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G146" s="66"/>
       <c r="H146" s="65" t="s">
@@ -23308,13 +23311,13 @@
         <v>333</v>
       </c>
       <c r="D147" s="108" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E147" s="84" t="s">
         <v>333</v>
       </c>
       <c r="F147" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G147" s="66"/>
       <c r="H147" s="65" t="s">
@@ -23346,13 +23349,13 @@
         <v>337</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E148" s="84" t="s">
         <v>337</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G148" s="112"/>
       <c r="H148" s="60" t="s">
@@ -23384,13 +23387,13 @@
         <v>340</v>
       </c>
       <c r="D149" s="108" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E149" s="84" t="s">
         <v>340</v>
       </c>
       <c r="F149" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G149" s="66"/>
       <c r="H149" s="65" t="s">
@@ -23422,13 +23425,13 @@
         <v>343</v>
       </c>
       <c r="D150" s="108" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E150" s="84" t="s">
         <v>343</v>
       </c>
       <c r="F150" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G150" s="66"/>
       <c r="H150" s="65" t="s">
@@ -23460,13 +23463,13 @@
         <v>346</v>
       </c>
       <c r="D151" s="108" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E151" s="84" t="s">
         <v>346</v>
       </c>
       <c r="F151" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G151" s="66"/>
       <c r="H151" s="65" t="s">
@@ -23498,13 +23501,13 @@
         <v>349</v>
       </c>
       <c r="D152" s="108" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E152" s="135" t="s">
         <v>349</v>
       </c>
       <c r="F152" s="84" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G152" s="66"/>
       <c r="H152" s="65" t="s">
@@ -23538,13 +23541,13 @@
         <v>353</v>
       </c>
       <c r="D153" s="108" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E153" s="65" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F153" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G153" s="66"/>
       <c r="H153" s="67"/>
@@ -23570,13 +23573,13 @@
         <v>355</v>
       </c>
       <c r="D154" s="108" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E154" s="65" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F154" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G154" s="66"/>
       <c r="H154" s="67"/>
@@ -23600,13 +23603,13 @@
         <v>357</v>
       </c>
       <c r="D155" s="108" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E155" s="65" t="s">
         <v>357</v>
       </c>
       <c r="F155" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G155" s="66"/>
       <c r="H155" s="67"/>
@@ -23632,13 +23635,13 @@
         <v>359</v>
       </c>
       <c r="D156" s="108" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E156" s="65" t="s">
         <v>359</v>
       </c>
       <c r="F156" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G156" s="66"/>
       <c r="H156" s="67"/>
@@ -23664,13 +23667,13 @@
         <v>362</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F157" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G157" s="102"/>
       <c r="H157" s="65" t="s">
@@ -23698,13 +23701,13 @@
         <v>366</v>
       </c>
       <c r="D158" s="140" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E158" s="65" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F158" s="104" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G158" s="102"/>
       <c r="H158" s="65" t="s">
@@ -23732,13 +23735,13 @@
         <v>369</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E159" s="104" t="s">
         <v>369</v>
       </c>
       <c r="F159" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G159" s="102"/>
       <c r="H159" s="65" t="s">
@@ -23766,13 +23769,13 @@
         <v>372</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E160" s="79" t="s">
         <v>372</v>
       </c>
       <c r="F160" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G160" s="102"/>
       <c r="H160" s="65" t="s">
@@ -23802,13 +23805,13 @@
         <v>377</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F161" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G161" s="102"/>
       <c r="H161" s="65" t="s">
@@ -23836,13 +23839,13 @@
         <v>380</v>
       </c>
       <c r="D162" s="93" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E162" s="60" t="s">
         <v>380</v>
       </c>
       <c r="F162" s="95" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G162" s="141"/>
       <c r="H162" s="60" t="s">
@@ -23878,13 +23881,13 @@
         <v>385</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F163" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G163" s="102"/>
       <c r="H163" s="67"/>
@@ -23912,13 +23915,13 @@
         <v>388</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E164" s="65" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F164" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G164" s="102"/>
       <c r="H164" s="67"/>
@@ -23946,13 +23949,13 @@
         <v>391</v>
       </c>
       <c r="D165" s="102" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F165" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G165" s="102"/>
       <c r="H165" s="67"/>
@@ -23980,13 +23983,13 @@
         <v>394</v>
       </c>
       <c r="D166" s="102" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E166" s="65" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F166" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G166" s="102"/>
       <c r="H166" s="65" t="s">
@@ -24018,13 +24021,13 @@
         <v>397</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E167" s="65" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F167" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G167" s="102"/>
       <c r="H167" s="67"/>
@@ -24052,13 +24055,13 @@
         <v>399</v>
       </c>
       <c r="D168" s="102" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F168" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G168" s="102"/>
       <c r="H168" s="67"/>
@@ -24086,13 +24089,13 @@
         <v>402</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E169" s="65" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F169" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G169" s="102"/>
       <c r="H169" s="67"/>
@@ -24120,13 +24123,13 @@
         <v>404</v>
       </c>
       <c r="D170" s="102" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F170" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G170" s="102"/>
       <c r="H170" s="67"/>
@@ -24154,13 +24157,13 @@
         <v>407</v>
       </c>
       <c r="D171" s="102" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F171" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G171" s="102"/>
       <c r="H171" s="65" t="s">
@@ -24192,13 +24195,13 @@
         <v>411</v>
       </c>
       <c r="D172" s="108" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E172" s="65" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F172" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G172" s="66"/>
       <c r="H172" s="65" t="s">
@@ -24228,13 +24231,13 @@
         <v>414</v>
       </c>
       <c r="D173" s="108" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E173" s="65" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F173" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G173" s="66"/>
       <c r="H173" s="65" t="s">
@@ -24264,13 +24267,13 @@
         <v>417</v>
       </c>
       <c r="D174" s="108" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E174" s="65" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F174" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G174" s="66"/>
       <c r="H174" s="65" t="s">
@@ -24300,13 +24303,13 @@
         <v>420</v>
       </c>
       <c r="D175" s="108" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E175" s="65" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F175" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G175" s="66"/>
       <c r="H175" s="65" t="s">
@@ -24334,13 +24337,13 @@
         <v>424</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E176" s="65" t="s">
         <v>424</v>
       </c>
       <c r="F176" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G176" s="102"/>
       <c r="H176" s="65" t="s">
@@ -24370,13 +24373,13 @@
         <v>428</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E177" s="65" t="s">
         <v>428</v>
       </c>
       <c r="F177" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G177" s="102"/>
       <c r="H177" s="65" t="s">
@@ -24406,13 +24409,13 @@
         <v>431</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E178" s="65" t="s">
         <v>431</v>
       </c>
       <c r="F178" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G178" s="102"/>
       <c r="H178" s="65" t="s">
@@ -24442,13 +24445,13 @@
         <v>434</v>
       </c>
       <c r="D179" s="102" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E179" s="65" t="s">
         <v>434</v>
       </c>
       <c r="F179" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G179" s="102"/>
       <c r="H179" s="67"/>
@@ -24478,13 +24481,13 @@
         <v>438</v>
       </c>
       <c r="D180" s="102" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E180" s="65" t="s">
         <v>438</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G180" s="102"/>
       <c r="H180" s="65" t="s">
@@ -24516,13 +24519,13 @@
         <v>441</v>
       </c>
       <c r="D181" s="102" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E181" s="65" t="s">
         <v>441</v>
       </c>
       <c r="F181" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G181" s="102"/>
       <c r="H181" s="65" t="s">
@@ -24552,13 +24555,13 @@
         <v>443</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E182" s="65" t="s">
         <v>443</v>
       </c>
       <c r="F182" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G182" s="102"/>
       <c r="H182" s="67"/>
@@ -24586,13 +24589,13 @@
         <v>448</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E183" s="101" t="s">
         <v>448</v>
       </c>
       <c r="F183" s="143" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G183" s="102"/>
       <c r="H183" s="67"/>
@@ -24620,13 +24623,13 @@
         <v>451</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E184" s="101" t="s">
         <v>451</v>
       </c>
       <c r="F184" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G184" s="102"/>
       <c r="H184" s="65" t="s">
@@ -24656,13 +24659,13 @@
         <v>454</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E185" s="101" t="s">
         <v>454</v>
       </c>
       <c r="F185" s="143" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G185" s="102"/>
       <c r="L185" s="86" t="s">
@@ -24686,13 +24689,13 @@
         <v>457</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E186" s="101" t="s">
         <v>457</v>
       </c>
       <c r="F186" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G186" s="102"/>
       <c r="H186" s="65" t="s">
@@ -24722,13 +24725,13 @@
         <v>461</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E187" s="101" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G187" s="102"/>
       <c r="H187" s="65"/>
@@ -24756,13 +24759,13 @@
         <v>464</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E188" s="101" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F188" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G188" s="102"/>
       <c r="H188" s="65"/>
@@ -24790,13 +24793,13 @@
         <v>467</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E189" s="101" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F189" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G189" s="102"/>
       <c r="H189" s="65"/>
@@ -24824,13 +24827,13 @@
         <v>470</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E190" s="101" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G190" s="102"/>
       <c r="H190" s="65"/>
@@ -24858,13 +24861,13 @@
         <v>473</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E191" s="101" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F191" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G191" s="102"/>
       <c r="H191" s="65"/>
@@ -24892,13 +24895,13 @@
         <v>476</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E192" s="101" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F192" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G192" s="102"/>
       <c r="H192" s="65"/>
@@ -24926,13 +24929,13 @@
         <v>479</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E193" s="101" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F193" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G193" s="102"/>
       <c r="H193" s="65"/>
@@ -24960,13 +24963,13 @@
         <v>482</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E194" s="101" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F194" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G194" s="102"/>
       <c r="H194" s="65"/>
@@ -24994,13 +24997,13 @@
         <v>485</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E195" s="101" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F195" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G195" s="102"/>
       <c r="H195" s="65"/>
@@ -25028,13 +25031,13 @@
         <v>488</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E196" s="101" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F196" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G196" s="102"/>
       <c r="H196" s="65"/>
@@ -25062,13 +25065,13 @@
         <v>491</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E197" s="101" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F197" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G197" s="102"/>
       <c r="H197" s="65"/>
@@ -25096,13 +25099,13 @@
         <v>494</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E198" s="101" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F198" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G198" s="102"/>
       <c r="H198" s="65"/>
@@ -25130,13 +25133,13 @@
         <v>497</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E199" s="101" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G199" s="102"/>
       <c r="H199" s="65"/>
@@ -25164,13 +25167,13 @@
         <v>501</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E200" s="79" t="s">
         <v>501</v>
       </c>
       <c r="F200" s="143" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G200" s="102"/>
       <c r="H200" s="67"/>
@@ -25196,13 +25199,13 @@
         <v>504</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E201" s="79" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F201" s="143" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G201" s="102"/>
       <c r="H201" s="67"/>
@@ -25228,13 +25231,13 @@
         <v>506</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E202" s="79" t="s">
         <v>506</v>
       </c>
       <c r="F202" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G202" s="102"/>
       <c r="H202" s="67"/>
@@ -25260,13 +25263,13 @@
         <v>508</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E203" s="79" t="s">
         <v>508</v>
       </c>
       <c r="F203" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G203" s="102"/>
       <c r="H203" s="67"/>
@@ -25292,13 +25295,13 @@
         <v>512</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E204" s="79" t="s">
         <v>512</v>
       </c>
       <c r="F204" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G204" s="102"/>
       <c r="H204" s="67"/>
@@ -25324,13 +25327,13 @@
         <v>515</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E205" s="79" t="s">
         <v>515</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G205" s="102"/>
       <c r="H205" s="67"/>
@@ -25354,13 +25357,13 @@
         <v>518</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E206" s="65" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F206" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G206" s="102"/>
       <c r="H206" s="67"/>
@@ -25386,13 +25389,13 @@
         <v>521</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E207" s="79" t="s">
         <v>521</v>
       </c>
       <c r="F207" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G207" s="102"/>
       <c r="H207" s="67"/>
@@ -25418,13 +25421,13 @@
         <v>524</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E208" s="79" t="s">
         <v>524</v>
       </c>
       <c r="F208" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G208" s="102"/>
       <c r="H208" s="67"/>
@@ -25450,13 +25453,13 @@
         <v>527</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E209" s="65" t="s">
         <v>527</v>
       </c>
       <c r="F209" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G209" s="102"/>
       <c r="H209" s="67"/>
@@ -25482,13 +25485,13 @@
         <v>530</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E210" s="65" t="s">
         <v>530</v>
       </c>
       <c r="F210" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G210" s="102"/>
       <c r="H210" s="65" t="s">
@@ -25514,13 +25517,13 @@
         <v>534</v>
       </c>
       <c r="D211" s="87" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E211" s="60" t="s">
         <v>534</v>
       </c>
       <c r="F211" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G211" s="88"/>
       <c r="H211" s="81"/>
@@ -25546,13 +25549,13 @@
         <v>537</v>
       </c>
       <c r="D212" s="87" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E212" s="81" t="s">
         <v>537</v>
       </c>
       <c r="F212" s="60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G212" s="88"/>
       <c r="H212" s="81"/>
@@ -25578,13 +25581,13 @@
         <v>541</v>
       </c>
       <c r="D213" s="148" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E213" s="132" t="s">
         <v>541</v>
       </c>
       <c r="F213" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G213" s="102"/>
       <c r="H213" s="67"/>
@@ -25607,16 +25610,16 @@
       </c>
       <c r="B214" s="84"/>
       <c r="C214" s="84" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D214" s="148" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E214" s="65" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F214" s="104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G214" s="102"/>
       <c r="H214" s="67"/>
@@ -25624,7 +25627,7 @@
       <c r="J214" s="82"/>
       <c r="K214" s="67"/>
       <c r="L214" s="82" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M214" s="82"/>
       <c r="N214" s="67"/>
@@ -37203,77 +37206,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="152" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E1" s="153" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F1" s="153" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="154" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1" s="153" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="155"/>
       <c r="B2" s="156"/>
       <c r="C2" s="157" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D2" s="157" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E2" s="155" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F2" s="158" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G2" s="147"/>
       <c r="H2" s="67"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="159" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="160" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D3" s="160" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E3" s="159" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F3" s="161" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G3" s="147"/>
       <c r="H3" s="67"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="159" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C4" s="160" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D4" s="160" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E4" s="159" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F4" s="159" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G4" s="147"/>
       <c r="H4" s="67"/>
@@ -37350,7 +37353,7 @@
     </row>
     <row r="12" ht="66.75" customHeight="1">
       <c r="A12" s="171" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B12" s="145"/>
       <c r="C12" s="170"/>
@@ -37721,7 +37724,7 @@
     </row>
     <row r="49">
       <c r="A49" s="181" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F49" s="182"/>
       <c r="G49" s="183"/>
@@ -37733,13 +37736,13 @@
     </row>
     <row r="50">
       <c r="A50" s="186" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B50" s="187" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C50" s="188" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D50" s="189"/>
       <c r="E50" s="190"/>
@@ -37753,13 +37756,13 @@
     </row>
     <row r="51">
       <c r="A51" s="191" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B51" s="192" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C51" s="193" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D51" s="194"/>
       <c r="E51" s="195"/>
@@ -37787,7 +37790,7 @@
     </row>
     <row r="53">
       <c r="A53" s="200" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F53" s="201"/>
       <c r="G53" s="183"/>
@@ -37799,16 +37802,16 @@
     </row>
     <row r="54">
       <c r="A54" s="202" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B54" s="203" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C54" s="203" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D54" s="204" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E54" s="185"/>
       <c r="F54" s="182"/>
@@ -37824,13 +37827,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="206" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C55" s="206" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D55" s="207" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E55" s="185"/>
       <c r="F55" s="182"/>
@@ -37846,13 +37849,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="206" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C56" s="206" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D56" s="207" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E56" s="185"/>
       <c r="F56" s="182"/>
@@ -37868,10 +37871,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="206" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C57" s="206" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D57" s="207">
         <v>1.0</v>
@@ -37890,13 +37893,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="206" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C58" s="206" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D58" s="207" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E58" s="185"/>
       <c r="F58" s="201"/>
@@ -37912,13 +37915,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="206" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C59" s="206" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D59" s="207" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E59" s="185"/>
       <c r="F59" s="182"/>
@@ -37931,12 +37934,12 @@
     </row>
     <row r="60">
       <c r="A60" s="205" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B60" s="208"/>
       <c r="C60" s="208"/>
       <c r="D60" s="207" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E60" s="185"/>
       <c r="F60" s="182"/>
@@ -37949,16 +37952,16 @@
     </row>
     <row r="61">
       <c r="A61" s="205" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B61" s="206" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C61" s="206" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D61" s="207" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E61" s="185"/>
       <c r="F61" s="201"/>
@@ -37974,13 +37977,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="206" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C62" s="206" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D62" s="207" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E62" s="185"/>
       <c r="F62" s="201"/>
@@ -37996,13 +37999,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="210" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C63" s="210" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D63" s="211" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E63" s="185"/>
       <c r="F63" s="201"/>
